--- a/doc/Calendario - PFG.xlsx
+++ b/doc/Calendario - PFG.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f0371ce6601b714/Documentos/NetBeansProjects/UNED-PFG/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{9E9D2799-E771-4927-B9DB-C10C0A06278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2BB8996-E075-4325-96F1-ABE533F62A61}"/>
+  <xr:revisionPtr revIDLastSave="312" documentId="8_{9E9D2799-E771-4927-B9DB-C10C0A06278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBE4F764-85B5-47EA-BB43-85B47AB66A0D}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{5F88FD15-125B-48C9-A0EC-768AD0459F19}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{5F88FD15-125B-48C9-A0EC-768AD0459F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario" sheetId="1" r:id="rId1"/>
+    <sheet name="Presupuesto" sheetId="4" r:id="rId2"/>
+    <sheet name="Distribucion Horas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
   <si>
     <t>Calendario PFG - Patrón de diseño de reusabilidad de GUIs</t>
   </si>
@@ -127,9 +133,6 @@
     <t>Diseño de solución</t>
   </si>
   <si>
-    <t xml:space="preserve">Búsqueda bibliográfica </t>
-  </si>
-  <si>
     <t>4.- Implemetación</t>
   </si>
   <si>
@@ -137,13 +140,91 @@
   </si>
   <si>
     <t>6.- Finalización o Cierre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Búsqueda/Estudio bibliográfica </t>
+  </si>
+  <si>
+    <t>Preparativos Presentación a Tribunal</t>
+  </si>
+  <si>
+    <t>4.- Testing</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>Presupuesto de Patrón de diseño de reusabilidad de GUIs</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Coste</t>
+  </si>
+  <si>
+    <t>Analista</t>
+  </si>
+  <si>
+    <t>Gestor Proyecto</t>
+  </si>
+  <si>
+    <t>Dias/Persona</t>
+  </si>
+  <si>
+    <t>Horas/Persona</t>
+  </si>
+  <si>
+    <t>Desarrollador</t>
+  </si>
+  <si>
+    <t>Marco general Precios por Rol</t>
+  </si>
+  <si>
+    <t>Precio Día</t>
+  </si>
+  <si>
+    <t>Precio Hora</t>
+  </si>
+  <si>
+    <t>Suma de Horas/Persona</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>Definir</t>
+  </si>
+  <si>
+    <t>Desarrollar</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>% Horas/Persona</t>
+  </si>
+  <si>
+    <t>% Dias/Persona</t>
+  </si>
+  <si>
+    <t>Suma de Dias/Persona</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +234,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -174,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -197,21 +285,233 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -228,23 +528,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>716280</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>681990</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Rombo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F2075A-B40C-44D3-98AF-823BEAC04604}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C80AF0D-931F-4CE4-9E7C-8A00440621F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -252,127 +552,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6979920" y="735330"/>
-          <a:ext cx="205740" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>674370</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>87630</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rombo 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D0634B-14A2-4172-9A2A-EC8FAFCF80BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7730490" y="1371600"/>
-          <a:ext cx="205740" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-ES" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>80010</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rombo 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699F3364-B6A9-471D-A8C2-EB4A46215B4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9307830" y="2461260"/>
+          <a:off x="7578090" y="880110"/>
           <a:ext cx="205740" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -409,22 +589,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>461010</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rombo 4">
+        <xdr:cNvPr id="3" name="Rombo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1383EB51-668A-4D15-9DE7-04E8D177E2D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D519EC16-C522-4D6C-B9B9-F234F6D9B41C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -432,7 +612,127 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9894570" y="2564130"/>
+          <a:off x="8393430" y="1809750"/>
+          <a:ext cx="205740" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>613410</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rombo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82081718-50B5-4C0A-BE0B-0585E2BEB68D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9886950" y="2350770"/>
+          <a:ext cx="205740" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rombo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBC9632F-6C72-4B73-A05D-928EEE195687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10523220" y="2922270"/>
           <a:ext cx="205740" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -467,6 +767,515 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Abel" refreshedDate="44641.935669907405" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="15" xr:uid="{C68BA043-FF69-485E-8DE1-1ABEBB26BC37}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:E17" sheet="Calendario"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Etapa" numFmtId="0">
+      <sharedItems count="7">
+        <s v="1.- Definición"/>
+        <s v="2.- Planificación"/>
+        <s v="3.- Iniciación"/>
+        <s v="4.- Implemetación"/>
+        <s v="4.- Testing"/>
+        <s v="5.- Control"/>
+        <s v="6.- Finalización o Cierre"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tarea" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Entregable" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Dias/Hombre" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Abel" refreshedDate="44641.947003356479" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="15" xr:uid="{F1AB7C6F-8C04-49DE-92F0-58BCE53EDD71}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:G17" sheet="Presupuesto"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Etapa" numFmtId="0">
+      <sharedItems count="7">
+        <s v="1.- Definición"/>
+        <s v="2.- Planificación"/>
+        <s v="3.- Iniciación"/>
+        <s v="4.- Implemetación"/>
+        <s v="4.- Testing"/>
+        <s v="5.- Control"/>
+        <s v="6.- Finalización o Cierre"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Acción" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Definir"/>
+        <s v="Desarrollar"/>
+        <s v="Testing"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tarea" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Role" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Analista"/>
+        <s v="Gestor Proyecto"/>
+        <s v="Desarrollador"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Dias/Persona" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
+    </cacheField>
+    <cacheField name="Horas/Persona" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="56"/>
+    </cacheField>
+    <cacheField name="Coste" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="650" maxValue="4550"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
+  <r>
+    <x v="0"/>
+    <s v="Preparacion Entorno de Trabajo"/>
+    <s v="Entorno de trabajo"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Análisis de requisitos"/>
+    <s v="Memoria"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Especificación de Test Script"/>
+    <s v="Memoria"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Ajuste del plan"/>
+    <s v="Memoria"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Diseño de solución"/>
+    <s v="Memoria"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Búsqueda/Estudio bibliográfica "/>
+    <s v="Memoria"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Desarrollo Librería"/>
+    <s v="Código"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Pruebas unitarias Librería"/>
+    <s v="Código + Memoria"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Implementar Librería en NetBeans"/>
+    <s v="Código"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Desarrollo Aplicación que usa Librería"/>
+    <s v="Código"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Pruebas unitarias Aplicación+Librería"/>
+    <s v="Código + Memoria"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="Pruebas completas Aplicación+Librería"/>
+    <s v="Código + Memoria"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Control de proyecto"/>
+    <s v="Memoria"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Preparativos Presentación a Tribunal"/>
+    <s v="Código + Memoria"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="Presentación a Tribunal"/>
+    <s v="Código + Memoria"/>
+    <n v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Preparacion Entorno de Trabajo"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="16"/>
+    <n v="1300"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Análisis de requisitos"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="40"/>
+    <n v="3250"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Especificación de Test Script"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="40"/>
+    <n v="3250"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Ajuste del plan"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="8"/>
+    <n v="750"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Diseño de solución"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="40"/>
+    <n v="3250"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Búsqueda/Estudio bibliográfica "/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="16"/>
+    <n v="1300"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Desarrollo Librería"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="32"/>
+    <n v="2200"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="Pruebas unitarias Librería"/>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="56"/>
+    <n v="3850"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Implementar Librería en NetBeans"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="32"/>
+    <n v="2200"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Desarrollo Aplicación que usa Librería"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="32"/>
+    <n v="2200"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="Pruebas unitarias Aplicación+Librería"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="56"/>
+    <n v="4550"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="Pruebas completas Aplicación+Librería"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="56"/>
+    <n v="4550"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="Control de proyecto"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="16"/>
+    <n v="1500"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <s v="Preparativos Presentación a Tribunal"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="16"/>
+    <n v="1300"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <s v="Presentación a Tribunal"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="8"/>
+    <n v="650"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30B57BE9-7EBC-444E-A664-885757ED34AC}" name="TablaDinámica2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A19:C28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Suma de Horas/Persona" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="% Horas/Persona" fld="5" showDataAs="percentOfTotal" baseField="2" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C61F178-20BA-4BBF-8BD2-AD914BF2F26C}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Suma de Dias/Persona" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="% Dias/Persona" fld="3" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E3FEBF6-02F7-487A-AF6F-35525C0DE73E}" name="TablaPrecios" displayName="TablaPrecios" ref="K2:M5" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="K2:M5" xr:uid="{1E3FEBF6-02F7-487A-AF6F-35525C0DE73E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9E817F2D-364B-4DBF-9E52-3F3B71B0C26E}" name="Role" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1EF48967-BFA5-4A9D-80CE-ADC6A7C3FC83}" name="Precio Día" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CD64728B-9F5E-42FD-965B-819C6EF878C3}" name="Precio Hora" dataDxfId="0">
+      <calculatedColumnFormula>L3/8</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -766,25 +1575,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA256BF-CC33-454D-B53A-D77A45BBCA45}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.20703125" customWidth="1"/>
-    <col min="2" max="2" width="31.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.20703125" customWidth="1"/>
+    <col min="1" max="1" width="19.47265625" customWidth="1"/>
+    <col min="2" max="2" width="31.83984375" customWidth="1"/>
+    <col min="3" max="3" width="17.1015625" customWidth="1"/>
+    <col min="4" max="4" width="9.47265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5234375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7890625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -795,25 +1607,34 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -823,14 +1644,24 @@
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12">
+        <f>E3*8</f>
+        <v>16</v>
+      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -840,14 +1671,24 @@
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="D4" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="12">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" ref="F4:F17" si="0">E4*8</f>
+        <v>40</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -857,14 +1698,24 @@
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -874,14 +1725,24 @@
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
+      <c r="D6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -891,33 +1752,53 @@
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -925,16 +1806,26 @@
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -942,16 +1833,26 @@
       <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>7</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -959,16 +1860,26 @@
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
@@ -976,16 +1887,26 @@
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -993,16 +1914,26 @@
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>7</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -1010,16 +1941,26 @@
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>7</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
@@ -1027,33 +1968,856 @@
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="10">
+        <f>SUM(E3:E17)</f>
+        <v>58</v>
+      </c>
+      <c r="F18" s="10">
+        <f>SUM(F3:F17)</f>
+        <v>464</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B2B709-71B0-49D5-ACB2-551FC6CC954E}">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="23.734375" customWidth="1"/>
+    <col min="2" max="2" width="17.15625" customWidth="1"/>
+    <col min="3" max="3" width="31.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.47265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5234375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7890625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.9453125" customWidth="1"/>
+    <col min="9" max="9" width="4.15625" customWidth="1"/>
+    <col min="10" max="10" width="3.578125" customWidth="1"/>
+    <col min="11" max="11" width="14.47265625" customWidth="1"/>
+    <col min="13" max="13" width="11.89453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="str">
+        <f>Calendario!A2</f>
+        <v>Etapa</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>Calendario!B2</f>
+        <v>Tarea</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="11" t="str">
+        <f>Calendario!E2</f>
+        <v>Dias/Persona</v>
+      </c>
+      <c r="F2" s="11" t="str">
+        <f>Calendario!F2</f>
+        <v>Horas/Persona</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="str">
+        <f>Calendario!A3</f>
+        <v>1.- Definición</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>Calendario!B3</f>
+        <v>Preparacion Entorno de Trabajo</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="12">
+        <f>Calendario!E3</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="12">
+        <f>Calendario!F3</f>
+        <v>16</v>
+      </c>
+      <c r="G3" s="21">
+        <f>VLOOKUP(D3,TablaPrecios[],3,FALSE) * F3</f>
+        <v>1300</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2">
+        <v>650</v>
+      </c>
+      <c r="M3" s="14">
+        <f>L3/8</f>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="str">
+        <f>Calendario!A4</f>
+        <v>1.- Definición</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>Calendario!B4</f>
+        <v>Análisis de requisitos</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="12">
+        <f>Calendario!E4</f>
+        <v>5</v>
+      </c>
+      <c r="F4" s="12">
+        <f>Calendario!F4</f>
+        <v>40</v>
+      </c>
+      <c r="G4" s="21">
+        <f>VLOOKUP(D4,TablaPrecios[],3,FALSE) * F4</f>
+        <v>3250</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2">
+        <v>550</v>
+      </c>
+      <c r="M4" s="14">
+        <f>L4/8</f>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="str">
+        <f>Calendario!A5</f>
+        <v>1.- Definición</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>Calendario!B5</f>
+        <v>Especificación de Test Script</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="12">
+        <f>Calendario!E5</f>
+        <v>5</v>
+      </c>
+      <c r="F5" s="12">
+        <f>Calendario!F5</f>
+        <v>40</v>
+      </c>
+      <c r="G5" s="21">
+        <f>VLOOKUP(D5,TablaPrecios[],3,FALSE) * F5</f>
+        <v>3250</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="19">
+        <v>750</v>
+      </c>
+      <c r="M5" s="20">
+        <f>L5/8</f>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="str">
+        <f>Calendario!A6</f>
+        <v>2.- Planificación</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>Calendario!B6</f>
+        <v>Ajuste del plan</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="12">
+        <f>Calendario!E6</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <f>Calendario!F6</f>
+        <v>8</v>
+      </c>
+      <c r="G6" s="21">
+        <f>VLOOKUP(D6,TablaPrecios[],3,FALSE) * F6</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="str">
+        <f>Calendario!A7</f>
+        <v>3.- Iniciación</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>Calendario!B7</f>
+        <v>Diseño de solución</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="12">
+        <f>Calendario!E7</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="12">
+        <f>Calendario!F7</f>
+        <v>40</v>
+      </c>
+      <c r="G7" s="21">
+        <f>VLOOKUP(D7,TablaPrecios[],3,FALSE) * F7</f>
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="str">
+        <f>Calendario!A8</f>
+        <v>3.- Iniciación</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>Calendario!B8</f>
+        <v xml:space="preserve">Búsqueda/Estudio bibliográfica </v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="12">
+        <f>Calendario!E8</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="12">
+        <f>Calendario!F8</f>
+        <v>16</v>
+      </c>
+      <c r="G8" s="21">
+        <f>VLOOKUP(D8,TablaPrecios[],3,FALSE) * F8</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="str">
+        <f>Calendario!A9</f>
+        <v>4.- Implemetación</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>Calendario!B9</f>
+        <v>Desarrollo Librería</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="12">
+        <f>Calendario!E9</f>
+        <v>4</v>
+      </c>
+      <c r="F9" s="12">
+        <f>Calendario!F9</f>
+        <v>32</v>
+      </c>
+      <c r="G9" s="21">
+        <f>VLOOKUP(D9,TablaPrecios[],3,FALSE) * F9</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="str">
+        <f>Calendario!A10</f>
+        <v>4.- Testing</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>Calendario!B10</f>
+        <v>Pruebas unitarias Librería</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="12">
+        <f>Calendario!E10</f>
+        <v>7</v>
+      </c>
+      <c r="F10" s="12">
+        <f>Calendario!F10</f>
+        <v>56</v>
+      </c>
+      <c r="G10" s="21">
+        <f>VLOOKUP(D10,TablaPrecios[],3,FALSE) * F10</f>
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="str">
+        <f>Calendario!A11</f>
+        <v>4.- Implemetación</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>Calendario!B11</f>
+        <v>Implementar Librería en NetBeans</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="12">
+        <f>Calendario!E11</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="12">
+        <f>Calendario!F11</f>
+        <v>32</v>
+      </c>
+      <c r="G11" s="21">
+        <f>VLOOKUP(D11,TablaPrecios[],3,FALSE) * F11</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="str">
+        <f>Calendario!A12</f>
+        <v>4.- Implemetación</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>Calendario!B12</f>
+        <v>Desarrollo Aplicación que usa Librería</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="12">
+        <f>Calendario!E12</f>
+        <v>4</v>
+      </c>
+      <c r="F12" s="12">
+        <f>Calendario!F12</f>
+        <v>32</v>
+      </c>
+      <c r="G12" s="21">
+        <f>VLOOKUP(D12,TablaPrecios[],3,FALSE) * F12</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="str">
+        <f>Calendario!A13</f>
+        <v>4.- Testing</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>Calendario!B13</f>
+        <v>Pruebas unitarias Aplicación+Librería</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="12">
+        <f>Calendario!E13</f>
+        <v>7</v>
+      </c>
+      <c r="F13" s="12">
+        <f>Calendario!F13</f>
+        <v>56</v>
+      </c>
+      <c r="G13" s="21">
+        <f>VLOOKUP(D13,TablaPrecios[],3,FALSE) * F13</f>
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="str">
+        <f>Calendario!A14</f>
+        <v>4.- Testing</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>Calendario!B14</f>
+        <v>Pruebas completas Aplicación+Librería</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="12">
+        <f>Calendario!E14</f>
+        <v>7</v>
+      </c>
+      <c r="F14" s="12">
+        <f>Calendario!F14</f>
+        <v>56</v>
+      </c>
+      <c r="G14" s="21">
+        <f>VLOOKUP(D14,TablaPrecios[],3,FALSE) * F14</f>
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="str">
+        <f>Calendario!A15</f>
+        <v>5.- Control</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>Calendario!B15</f>
+        <v>Control de proyecto</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="12">
+        <f>Calendario!E15</f>
+        <v>2</v>
+      </c>
+      <c r="F15" s="12">
+        <f>Calendario!F15</f>
+        <v>16</v>
+      </c>
+      <c r="G15" s="21">
+        <f>VLOOKUP(D15,TablaPrecios[],3,FALSE) * F15</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="str">
+        <f>Calendario!A16</f>
+        <v>6.- Finalización o Cierre</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>Calendario!B16</f>
+        <v>Preparativos Presentación a Tribunal</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="12">
+        <f>Calendario!E16</f>
+        <v>2</v>
+      </c>
+      <c r="F16" s="12">
+        <f>Calendario!F16</f>
+        <v>16</v>
+      </c>
+      <c r="G16" s="21">
+        <f>VLOOKUP(D16,TablaPrecios[],3,FALSE) * F16</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="str">
+        <f>Calendario!A17</f>
+        <v>6.- Finalización o Cierre</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>Calendario!B17</f>
+        <v>Presentación a Tribunal</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="12">
+        <f>Calendario!E17</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="12">
+        <f>Calendario!F17</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="21">
+        <f>VLOOKUP(D17,TablaPrecios[],3,FALSE) * F17</f>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="23">
+        <f>SUM(G3:G17)</f>
+        <v>36100</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K3:M5">
+    <sortCondition ref="K3:K5"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B888545-2919-4DDB-BBF1-58B85210A73C}">
+  <dimension ref="A3:C28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="17.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.26171875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.20689655172413793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.7241379310344827E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.1206896551724138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="7">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.20689655172413793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="7">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.36206896551724138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3.4482758620689655E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5.1724137931034482E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="7">
+        <v>58</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="7">
+        <v>200</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.43103448275862066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="7">
+        <v>176</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.37931034482758619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="7">
+        <v>24</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5.1724137931034482E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="7">
+        <v>96</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.20689655172413793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="7">
+        <v>96</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.20689655172413793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="7">
+        <v>168</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.36206896551724138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="7">
+        <v>112</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.2413793103448276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="7">
+        <v>56</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.1206896551724138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="7">
+        <v>464</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>